--- a/data/trans_orig/P59A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>31296</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21250</v>
+        <v>22446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42566</v>
+        <v>42541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2153726017080492</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1462377021980452</v>
+        <v>0.1544701758590199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2929336578077824</v>
+        <v>0.29275578295431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>20755</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13244</v>
+        <v>12938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29982</v>
+        <v>29118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1672425493973632</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1067175703766938</v>
+        <v>0.1042534889861783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2415918445951725</v>
+        <v>0.2346321676220289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -786,19 +786,19 @@
         <v>52051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40361</v>
+        <v>40445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66389</v>
+        <v>66012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1932022625313704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1498122585847653</v>
+        <v>0.1501228531814882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2464241319457331</v>
+        <v>0.2450221824411922</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>114015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102745</v>
+        <v>102770</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124061</v>
+        <v>122865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7846273982919508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7070663421922175</v>
+        <v>0.70724421704569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8537622978019549</v>
+        <v>0.8455298241409801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -836,19 +836,19 @@
         <v>103345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94118</v>
+        <v>94982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110856</v>
+        <v>111162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8327574506026368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7584081554048276</v>
+        <v>0.7653678323779711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8932824296233062</v>
+        <v>0.8957465110138217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>209</v>
@@ -857,19 +857,19 @@
         <v>217360</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>203022</v>
+        <v>203399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>229050</v>
+        <v>228966</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8067977374686296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7535758680542669</v>
+        <v>0.7549778175588078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8501877414152348</v>
+        <v>0.8498771468185119</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19476</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12079</v>
+        <v>12437</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28551</v>
+        <v>28284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1586810998482821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09841968964275513</v>
+        <v>0.1013305819925388</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2326231491530804</v>
+        <v>0.2304520202904379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -982,19 +982,19 @@
         <v>38551</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28475</v>
+        <v>28497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49675</v>
+        <v>49483</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2345400930427211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1732408349815934</v>
+        <v>0.1733760933056509</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3022179490931152</v>
+        <v>0.3010494851214447</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>58026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44776</v>
+        <v>45484</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73342</v>
+        <v>72172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2021109857696918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1559598224373069</v>
+        <v>0.1584256485236344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2554559073180786</v>
+        <v>0.2513826453149405</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>103258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94183</v>
+        <v>94450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110655</v>
+        <v>110297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8413189001517178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7673768508469201</v>
+        <v>0.7695479797095623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9015803103572448</v>
+        <v>0.8986694180074611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -1053,19 +1053,19 @@
         <v>125817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114693</v>
+        <v>114885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>135893</v>
+        <v>135871</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7654599069572788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6977820509068847</v>
+        <v>0.6989505148785553</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8267591650184067</v>
+        <v>0.8266239066943489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>223</v>
@@ -1074,19 +1074,19 @@
         <v>229076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>213760</v>
+        <v>214930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>242326</v>
+        <v>241618</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7978890142303082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7445440926819215</v>
+        <v>0.7486173546850595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8440401775626931</v>
+        <v>0.8415743514763657</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>33950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23951</v>
+        <v>23118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45665</v>
+        <v>44623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2132949423837654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1504745027020215</v>
+        <v>0.1452413834833985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2868951878532129</v>
+        <v>0.2803476431223681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3009</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8044</v>
+        <v>7954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06641675337365546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02094868545258549</v>
+        <v>0.02070904375545931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1775609054153875</v>
+        <v>0.1755646645883375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1220,19 +1220,19 @@
         <v>36959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25878</v>
+        <v>26197</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49927</v>
+        <v>50462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1807523264978128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1265607680072548</v>
+        <v>0.1281191115717808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2441719661702517</v>
+        <v>0.2467870112676738</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>125220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113505</v>
+        <v>114547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135219</v>
+        <v>136052</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7867050576162345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.713104812146787</v>
+        <v>0.719652356877631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8495254972979784</v>
+        <v>0.8547586165166009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1270,19 +1270,19 @@
         <v>42295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37260</v>
+        <v>37350</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44355</v>
+        <v>44366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9335832466263445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8224390945846117</v>
+        <v>0.8244353354116627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9790513145474146</v>
+        <v>0.9792909562445408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -1291,19 +1291,19 @@
         <v>167515</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>154547</v>
+        <v>154012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178596</v>
+        <v>178277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8192476735021872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7558280338297483</v>
+        <v>0.7532129887323263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8734392319927453</v>
+        <v>0.8718808884282192</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>66178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52591</v>
+        <v>51843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82142</v>
+        <v>82730</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1614737486683462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1283224003564749</v>
+        <v>0.1264958582060463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2004273535297677</v>
+        <v>0.2018602777899969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>36459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25409</v>
+        <v>25435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48651</v>
+        <v>49217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1179571624203875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0822074109058909</v>
+        <v>0.08229067658016109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1574017138184184</v>
+        <v>0.1592328538026556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1437,19 +1437,19 @@
         <v>102637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84636</v>
+        <v>86227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121618</v>
+        <v>121791</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1427646472540323</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1177257361634613</v>
+        <v>0.1199391057524941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1691669005369058</v>
+        <v>0.1694082390632193</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>343658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327694</v>
+        <v>327106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357245</v>
+        <v>357993</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8385262513316538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7995726464702323</v>
+        <v>0.7981397222100032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8716775996435251</v>
+        <v>0.8735041417939539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1487,19 +1487,19 @@
         <v>272628</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>260436</v>
+        <v>259870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283678</v>
+        <v>283652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8820428375796125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8425982861815819</v>
+        <v>0.8407671461973445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9177925890941092</v>
+        <v>0.9177093234198391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>599</v>
@@ -1508,19 +1508,19 @@
         <v>616286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>597305</v>
+        <v>597132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>634287</v>
+        <v>632696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8572353527459677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8308330994630944</v>
+        <v>0.8305917609367807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8822742638365388</v>
+        <v>0.8800608942475057</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>23071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14179</v>
+        <v>15395</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34645</v>
+        <v>33728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1428480126872599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08779177767304941</v>
+        <v>0.09531840469203261</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2145090072948137</v>
+        <v>0.2088294050657165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>26468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18239</v>
+        <v>17587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38656</v>
+        <v>38686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.134386804006929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0926035888792361</v>
+        <v>0.08929408609947528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1962652749916472</v>
+        <v>0.1964206659592359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -1654,19 +1654,19 @@
         <v>49540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36761</v>
+        <v>36781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62938</v>
+        <v>65427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.13819905774707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1025502411854454</v>
+        <v>0.1026057738882187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1755766241505401</v>
+        <v>0.1825193087675877</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>138439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126865</v>
+        <v>127782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147331</v>
+        <v>146115</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8571519873127401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7854909927051867</v>
+        <v>0.7911705949342837</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9122082223269508</v>
+        <v>0.9046815953079674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -1704,19 +1704,19 @@
         <v>170489</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158301</v>
+        <v>158271</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178718</v>
+        <v>179370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8656131959930711</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8037347250083529</v>
+        <v>0.8035793340407641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.907396411120764</v>
+        <v>0.9107059139005248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>293</v>
@@ -1725,19 +1725,19 @@
         <v>308927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>295529</v>
+        <v>293040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321706</v>
+        <v>321686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.86180094225293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8244233758494599</v>
+        <v>0.8174806912324123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8974497588145547</v>
+        <v>0.8973942261117813</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4311</v>
+        <v>3951</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002961127342253773</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01501002591602072</v>
+        <v>0.01375842716719032</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1850,19 +1850,19 @@
         <v>16135</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9657</v>
+        <v>8793</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26361</v>
+        <v>26241</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02980459384883805</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01783723407406891</v>
+        <v>0.01624117550728943</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04869229832620765</v>
+        <v>0.0484705509021707</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1871,19 +1871,19 @@
         <v>16986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10289</v>
+        <v>10276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26137</v>
+        <v>27317</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0205006361528129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01241783095433343</v>
+        <v>0.01240275757143186</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03154586770266584</v>
+        <v>0.03296961434317473</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>286326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282865</v>
+        <v>283225</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287176</v>
@@ -1909,7 +1909,7 @@
         <v>0.9970388726577463</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9849899740839794</v>
+        <v>0.9862415728328107</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>525239</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>515013</v>
+        <v>515133</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>531717</v>
+        <v>532581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.970195406151162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9513077016737924</v>
+        <v>0.9515294490978293</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9821627659259311</v>
+        <v>0.9837588244927107</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>824</v>
@@ -1942,19 +1942,19 @@
         <v>811564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>802413</v>
+        <v>801233</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>818261</v>
+        <v>818274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9794993638471871</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9684541322973342</v>
+        <v>0.9670303856568252</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9875821690456669</v>
+        <v>0.9875972424285682</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>174821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148908</v>
+        <v>150286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>201498</v>
+        <v>201200</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1359696860397577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1158151912322181</v>
+        <v>0.1168871529204335</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1567178052146498</v>
+        <v>0.1564863589306651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -2067,19 +2067,19 @@
         <v>141378</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120005</v>
+        <v>118490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164993</v>
+        <v>165581</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1023592245990738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08688550474933419</v>
+        <v>0.08578842350073709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1194570122963936</v>
+        <v>0.1198831416961928</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>299</v>
@@ -2088,19 +2088,19 @@
         <v>316199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>284901</v>
+        <v>285858</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>355037</v>
+        <v>349902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1185629697146732</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1068276055969876</v>
+        <v>0.1071863600773777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1331257296235009</v>
+        <v>0.1312005528582524</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1110916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1084239</v>
+        <v>1084537</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1136829</v>
+        <v>1135451</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8640303139602423</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8432821947853503</v>
+        <v>0.843513641069335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8841848087677823</v>
+        <v>0.8831128470795666</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1221</v>
@@ -2138,19 +2138,19 @@
         <v>1239812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1216197</v>
+        <v>1215609</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1261185</v>
+        <v>1262700</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8976407754009262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8805429877036064</v>
+        <v>0.8801168583038071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9131144952506658</v>
+        <v>0.9142115764992629</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2316</v>
@@ -2159,19 +2159,19 @@
         <v>2350728</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2311890</v>
+        <v>2317025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2382026</v>
+        <v>2381069</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8814370302853267</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8668742703764989</v>
+        <v>0.8687994471417476</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8931723944030123</v>
+        <v>0.8928136399226222</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>35580</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25177</v>
+        <v>25591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47737</v>
+        <v>48456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2329556117365321</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1648410462011789</v>
+        <v>0.1675511062673689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3125458642351511</v>
+        <v>0.3172532062444735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2526,19 +2526,19 @@
         <v>27759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19379</v>
+        <v>18715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39216</v>
+        <v>39704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2403141118643938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1677632411020968</v>
+        <v>0.1620154746327956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.339493139096713</v>
+        <v>0.3437217983374674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -2547,19 +2547,19 @@
         <v>63340</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50030</v>
+        <v>49355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80660</v>
+        <v>81673</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2361243198285056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.186508713967615</v>
+        <v>0.1839899671586523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3006937565559371</v>
+        <v>0.3044687250940237</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>117155</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104998</v>
+        <v>104279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127558</v>
+        <v>127144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7670443882634679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.687454135764849</v>
+        <v>0.6827467937555264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8351589537988211</v>
+        <v>0.832448893732631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -2597,19 +2597,19 @@
         <v>87753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76296</v>
+        <v>75808</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96133</v>
+        <v>96797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7596858881356062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6605068609032869</v>
+        <v>0.6562782016625326</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8322367588979032</v>
+        <v>0.8379845253672045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>191</v>
@@ -2618,19 +2618,19 @@
         <v>204907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>187587</v>
+        <v>186574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>218217</v>
+        <v>218892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7638756801714944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.699306243444063</v>
+        <v>0.6955312749059762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8134912860323851</v>
+        <v>0.8160100328413475</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>21269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12922</v>
+        <v>12861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32848</v>
+        <v>32456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1584497412935771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09626522996473662</v>
+        <v>0.09581027002735552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2447142450610589</v>
+        <v>0.2417911245568283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2743,19 +2743,19 @@
         <v>26259</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17379</v>
+        <v>17768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36580</v>
+        <v>37322</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2231712316220443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.147706876196303</v>
+        <v>0.1510125230597942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3108959083196032</v>
+        <v>0.3172017060570057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -2764,19 +2764,19 @@
         <v>47527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34301</v>
+        <v>33352</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61064</v>
+        <v>61486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1886819537804232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1361752691117997</v>
+        <v>0.132406435624181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2424216327924578</v>
+        <v>0.2440992325967003</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>112961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101382</v>
+        <v>101774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121308</v>
+        <v>121369</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8415502587064229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7552857549389411</v>
+        <v>0.7582088754431716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9037347700352635</v>
+        <v>0.9041897299726444</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -2814,19 +2814,19 @@
         <v>91402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81081</v>
+        <v>80339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100282</v>
+        <v>99893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7768287683779557</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6891040916803968</v>
+        <v>0.6827982939429948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.852293123803697</v>
+        <v>0.8489874769402058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -2835,19 +2835,19 @@
         <v>204364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>190827</v>
+        <v>190405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>217590</v>
+        <v>218539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8113180462195767</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7575783672075425</v>
+        <v>0.7559007674032995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8638247308882003</v>
+        <v>0.867593564375819</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>44301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32792</v>
+        <v>33812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56397</v>
+        <v>58655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2282174468797425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1689317783676985</v>
+        <v>0.1741823165974187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2905321700713301</v>
+        <v>0.3021656305133464</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2960,19 +2960,19 @@
         <v>18519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11629</v>
+        <v>11096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26901</v>
+        <v>27389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1880151223112851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1180611975313489</v>
+        <v>0.1126530238206565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2731224879119984</v>
+        <v>0.2780686903401638</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -2981,19 +2981,19 @@
         <v>62819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48408</v>
+        <v>47662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78749</v>
+        <v>77423</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.214684955351464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1654351461433288</v>
+        <v>0.1628862972324953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2691239752977906</v>
+        <v>0.2645910969216446</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>149815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137719</v>
+        <v>135461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>161324</v>
+        <v>160304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7717825531202575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.70946782992867</v>
+        <v>0.6978343694866537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8310682216323015</v>
+        <v>0.8258176834025818</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -3031,19 +3031,19 @@
         <v>79977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71595</v>
+        <v>71107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86867</v>
+        <v>87400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8119848776887149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7268775120880018</v>
+        <v>0.7219313096598362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8819388024686513</v>
+        <v>0.8873469761793435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>212</v>
@@ -3052,19 +3052,19 @@
         <v>229793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213863</v>
+        <v>215189</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>244204</v>
+        <v>244950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7853150446485361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7308760247022092</v>
+        <v>0.7354089030783554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8345648538566711</v>
+        <v>0.8371137027675047</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>77086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62323</v>
+        <v>60636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96437</v>
+        <v>93949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1848140042369464</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1494182042530463</v>
+        <v>0.1453731492064896</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2312071156389463</v>
+        <v>0.2252418537235508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3177,19 +3177,19 @@
         <v>71833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56803</v>
+        <v>56660</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87120</v>
+        <v>88817</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2225506643091184</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1759864388952898</v>
+        <v>0.1755427654943148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2699109850224863</v>
+        <v>0.2751698811123557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -3198,19 +3198,19 @@
         <v>148920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>127420</v>
+        <v>128026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170603</v>
+        <v>172159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2012767078175113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.172217423824962</v>
+        <v>0.1730372773160893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2305837312049793</v>
+        <v>0.2326858148461051</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>340017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>320666</v>
+        <v>323154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354780</v>
+        <v>356467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8151859957630536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7687928843610536</v>
+        <v>0.7747581462764491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8505817957469536</v>
+        <v>0.8546268507935103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -3248,19 +3248,19 @@
         <v>250939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235652</v>
+        <v>233955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265969</v>
+        <v>266112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7774493356908816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7300890149775137</v>
+        <v>0.7248301188876446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8240135611047101</v>
+        <v>0.8244572345056853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>554</v>
@@ -3269,19 +3269,19 @@
         <v>590956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>569273</v>
+        <v>567717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>612456</v>
+        <v>611850</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7987232921824886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7694162687950207</v>
+        <v>0.7673141851538949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8277825761750381</v>
+        <v>0.8269627226839107</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>33346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24236</v>
+        <v>23650</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44653</v>
+        <v>44745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1493121769095751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1085220759369637</v>
+        <v>0.105896947054513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.199941913946977</v>
+        <v>0.2003524775276351</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3394,19 +3394,19 @@
         <v>38604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26724</v>
+        <v>27698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52697</v>
+        <v>52699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1366723468878911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09461516848273513</v>
+        <v>0.09806098759314415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1865701113495243</v>
+        <v>0.186577167839269</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -3415,19 +3415,19 @@
         <v>71949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57604</v>
+        <v>57063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90652</v>
+        <v>87897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1422534764781361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1138903188424745</v>
+        <v>0.1128214719579523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1792315242097248</v>
+        <v>0.1737837395902104</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>189983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178676</v>
+        <v>178584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199093</v>
+        <v>199679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8506878230904249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8000580860530229</v>
+        <v>0.7996475224723648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8914779240630363</v>
+        <v>0.894103052945487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -3465,19 +3465,19 @@
         <v>243850</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>229757</v>
+        <v>229755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>255730</v>
+        <v>254756</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8633276531121089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8134298886504757</v>
+        <v>0.8134228321607312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9053848315172649</v>
+        <v>0.9019390124068558</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -3486,19 +3486,19 @@
         <v>433833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415130</v>
+        <v>417885</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>448178</v>
+        <v>448719</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8577465235218639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8207684757902752</v>
+        <v>0.8262162604097897</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8861096811575254</v>
+        <v>0.8871785280420469</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>19766</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11896</v>
+        <v>12556</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29718</v>
+        <v>30327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04067779790802403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02448176620049015</v>
+        <v>0.02583885114635155</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06115807977007486</v>
+        <v>0.06241229217092898</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3624,19 +3624,19 @@
         <v>19766</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12845</v>
+        <v>12371</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31699</v>
+        <v>31652</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02660745200620617</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01729038300293782</v>
+        <v>0.01665326232098398</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04267035657246696</v>
+        <v>0.04260762229363473</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>466151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>456199</v>
+        <v>455590</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>474021</v>
+        <v>473361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9593222020919759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9388419202299254</v>
+        <v>0.9375877078290711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9755182337995099</v>
+        <v>0.9741611488536487</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>698</v>
@@ -3687,19 +3687,19 @@
         <v>723110</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>711177</v>
+        <v>711224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>730031</v>
+        <v>730505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9733925479937938</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9573296434275332</v>
+        <v>0.9573923777063652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9827096169970623</v>
+        <v>0.9833467376790158</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>211582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>183796</v>
+        <v>184912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>242732</v>
+        <v>243694</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1534903172650048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1333334357403401</v>
+        <v>0.1341427724819316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1760875789450643</v>
+        <v>0.1767857879997268</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -3812,19 +3812,19 @@
         <v>202740</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>176512</v>
+        <v>178183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>231319</v>
+        <v>233899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.142492031758982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1240585347350323</v>
+        <v>0.125232588741948</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.162578978049469</v>
+        <v>0.1643922323634051</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>375</v>
@@ -3833,19 +3833,19 @@
         <v>414321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374920</v>
+        <v>378919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>459817</v>
+        <v>459199</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1479041288889857</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1338387888864053</v>
+        <v>0.1352660436223888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1641449244132528</v>
+        <v>0.1639245122983003</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>1166889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1135739</v>
+        <v>1134777</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1194675</v>
+        <v>1193559</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8465096827349953</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8239124210549358</v>
+        <v>0.8232142120002731</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8666665642596599</v>
+        <v>0.8658572275180676</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1144</v>
@@ -3883,19 +3883,19 @@
         <v>1220073</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1191494</v>
+        <v>1188914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1246301</v>
+        <v>1244630</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.857507968241018</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.837421021950531</v>
+        <v>0.8356077676365949</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8759414652649676</v>
+        <v>0.874767411258052</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2256</v>
@@ -3904,19 +3904,19 @@
         <v>2386963</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2341467</v>
+        <v>2342085</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2426364</v>
+        <v>2422365</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8520958711110143</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8358550755867471</v>
+        <v>0.8360754877016997</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8661612111135947</v>
+        <v>0.8647339563776112</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>26146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17320</v>
+        <v>17007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37055</v>
+        <v>37911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1398391659194376</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09263238852883046</v>
+        <v>0.09095750326024798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1981852057181767</v>
+        <v>0.2027586635936971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -4271,19 +4271,19 @@
         <v>26956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18889</v>
+        <v>18370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38887</v>
+        <v>38410</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.174263344030093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1221105271001808</v>
+        <v>0.1187559592064217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2513934780577897</v>
+        <v>0.2483083579801209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -4292,19 +4292,19 @@
         <v>53102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41119</v>
+        <v>40551</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69615</v>
+        <v>68477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1554246855500937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1203492610316864</v>
+        <v>0.118688481112138</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2037560137673765</v>
+        <v>0.2004251228960144</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>160828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>149919</v>
+        <v>149063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169654</v>
+        <v>169967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8601608340805624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8018147942818235</v>
+        <v>0.7972413364063029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9073676114711695</v>
+        <v>0.909042496739752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -4342,19 +4342,19 @@
         <v>127730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115799</v>
+        <v>116276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135797</v>
+        <v>136316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.825736655969907</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7486065219422106</v>
+        <v>0.7516916420198791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8778894728998191</v>
+        <v>0.8812440407935783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>265</v>
@@ -4363,19 +4363,19 @@
         <v>288558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>272045</v>
+        <v>273183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300541</v>
+        <v>301109</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8445753144499063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7962439862326234</v>
+        <v>0.7995748771039854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8796507389683134</v>
+        <v>0.881311518887862</v>
       </c>
     </row>
     <row r="6">
@@ -4467,19 +4467,19 @@
         <v>44670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33965</v>
+        <v>34657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56276</v>
+        <v>56734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3470648000429933</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2638921975142426</v>
+        <v>0.269269691870887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4372436680520529</v>
+        <v>0.4408008671212646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -4488,19 +4488,19 @@
         <v>27337</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19310</v>
+        <v>18647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38279</v>
+        <v>38218</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1786375853254102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.126183164540588</v>
+        <v>0.1218486534584404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2501333796585346</v>
+        <v>0.2497371791287382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -4509,19 +4509,19 @@
         <v>72007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57866</v>
+        <v>57225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86726</v>
+        <v>87769</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2555800802131214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2053872174687357</v>
+        <v>0.2031121708706333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.307822806889907</v>
+        <v>0.3115263000288874</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>84037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72431</v>
+        <v>71973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94742</v>
+        <v>94050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6529351999570067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5627563319479472</v>
+        <v>0.5591991328787355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7361078024857575</v>
+        <v>0.7307303081291131</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -4559,19 +4559,19 @@
         <v>125696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114754</v>
+        <v>114815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>133723</v>
+        <v>134386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8213624146745898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7498666203414653</v>
+        <v>0.7502628208712617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8738168354594119</v>
+        <v>0.8781513465415596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -4580,19 +4580,19 @@
         <v>209733</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>195014</v>
+        <v>193971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>223874</v>
+        <v>224515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7444199197868786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6921771931100931</v>
+        <v>0.6884736999711126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7946127825312643</v>
+        <v>0.7968878291293668</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>30229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21491</v>
+        <v>20058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42411</v>
+        <v>41054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1942385108065029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1380911316909026</v>
+        <v>0.128882478377807</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2725123463343742</v>
+        <v>0.2637925833201106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4705,19 +4705,19 @@
         <v>11959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6763</v>
+        <v>5990</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20355</v>
+        <v>19232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1751952294043505</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09907268166255881</v>
+        <v>0.08774892223207069</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2981890290432195</v>
+        <v>0.2817432185145087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -4726,19 +4726,19 @@
         <v>42188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31071</v>
+        <v>29582</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56290</v>
+        <v>54632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1884324886905306</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1387768357893193</v>
+        <v>0.1321281147427815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.251417344515948</v>
+        <v>0.2440138792213849</v>
       </c>
     </row>
     <row r="11">
@@ -4755,19 +4755,19 @@
         <v>125400</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113218</v>
+        <v>114575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134138</v>
+        <v>135571</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8057614891934971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7274876536656262</v>
+        <v>0.7362074166798894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8619088683090974</v>
+        <v>0.8711175216221931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -4776,19 +4776,19 @@
         <v>56302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47906</v>
+        <v>49029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61498</v>
+        <v>62271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8248047705956495</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7018109709567804</v>
+        <v>0.7182567814854913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9009273183374407</v>
+        <v>0.9122510777679292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>175</v>
@@ -4797,19 +4797,19 @@
         <v>181702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167600</v>
+        <v>169258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192819</v>
+        <v>194308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8115675113094694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7485826554840521</v>
+        <v>0.7559861207786145</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8612231642106809</v>
+        <v>0.8678718852572184</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>94933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78085</v>
+        <v>79243</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114441</v>
+        <v>114113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2299717188629891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1891589731437615</v>
+        <v>0.1919632454783735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2772298920405283</v>
+        <v>0.2764356796514034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -4922,19 +4922,19 @@
         <v>82519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66944</v>
+        <v>68619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99502</v>
+        <v>101356</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1983361646096299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1609009734756611</v>
+        <v>0.1649278023719933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2391569530027311</v>
+        <v>0.2436129167480952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>171</v>
@@ -4943,19 +4943,19 @@
         <v>177451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>155241</v>
+        <v>156107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201102</v>
+        <v>205364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2140918530743064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1872957564223193</v>
+        <v>0.1883403146513652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2426253891722678</v>
+        <v>0.2477680753086339</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>317868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298360</v>
+        <v>298688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334716</v>
+        <v>333558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7700282811370109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7227701079594721</v>
+        <v>0.7235643203485966</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8108410268562386</v>
+        <v>0.8080367545216264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -4993,19 +4993,19 @@
         <v>333536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316553</v>
+        <v>314699</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>349111</v>
+        <v>347436</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8016638353903701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7608430469972689</v>
+        <v>0.756387083251905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.839099026524339</v>
+        <v>0.8350721976280067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -5014,19 +5014,19 @@
         <v>651405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>627754</v>
+        <v>623492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>673615</v>
+        <v>672749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7859081469256937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7573746108277324</v>
+        <v>0.752231924691366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8127042435776808</v>
+        <v>0.8116596853486348</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>52238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38605</v>
+        <v>39560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66563</v>
+        <v>67637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1772615446244499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1309985506886218</v>
+        <v>0.1342404658418563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2258716414558557</v>
+        <v>0.2295151394324342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5139,19 +5139,19 @@
         <v>49234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37746</v>
+        <v>37346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62822</v>
+        <v>63614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1555172210953208</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1192290601936035</v>
+        <v>0.1179653173875015</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1984379986038304</v>
+        <v>0.2009396350687342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -5160,19 +5160,19 @@
         <v>101472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85140</v>
+        <v>85959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122427</v>
+        <v>123828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.166000107592719</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1392819566217975</v>
+        <v>0.1406213174212602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2002805202429865</v>
+        <v>0.2025720705626331</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>242458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>228133</v>
+        <v>227059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>256091</v>
+        <v>255136</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8227384553755501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7741283585441443</v>
+        <v>0.7704848605675656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8690014493113781</v>
+        <v>0.8657595341581437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>246</v>
@@ -5210,19 +5210,19 @@
         <v>267348</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>253760</v>
+        <v>252968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278836</v>
+        <v>279236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8444827789046792</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8015620013961694</v>
+        <v>0.7990603649312656</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8807709398063965</v>
+        <v>0.8820346826124984</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>484</v>
@@ -5231,19 +5231,19 @@
         <v>509806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>488851</v>
+        <v>487450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>526138</v>
+        <v>525319</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.833999892407281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7997194797570134</v>
+        <v>0.7974279294373668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8607180433782025</v>
+        <v>0.8593786825787397</v>
       </c>
     </row>
     <row r="18">
@@ -5335,19 +5335,19 @@
         <v>7047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2847</v>
+        <v>2910</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13587</v>
+        <v>14525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0253968934223535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01025838349662152</v>
+        <v>0.01048696227414783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04896405776186955</v>
+        <v>0.05234362716864296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5356,19 +5356,19 @@
         <v>26192</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17662</v>
+        <v>17081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38170</v>
+        <v>36767</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05466914810733045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03686399893294746</v>
+        <v>0.03565250451965401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07966993735284229</v>
+        <v>0.07674152206805761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -5377,19 +5377,19 @@
         <v>33240</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22958</v>
+        <v>22602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45379</v>
+        <v>44548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04393331095828702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03034434523037521</v>
+        <v>0.02987281180816844</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05997822251065922</v>
+        <v>0.0588792640848619</v>
       </c>
     </row>
     <row r="20">
@@ -5406,19 +5406,19 @@
         <v>270439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263899</v>
+        <v>262961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>274639</v>
+        <v>274576</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9746031065776465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9510359422381304</v>
+        <v>0.9476563728313557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9897416165033779</v>
+        <v>0.9895130377258522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>418</v>
@@ -5427,19 +5427,19 @@
         <v>452913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>440935</v>
+        <v>442338</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>461443</v>
+        <v>462024</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9453308518926695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9203300626471578</v>
+        <v>0.9232584779319423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9631360010670528</v>
+        <v>0.9643474954803459</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>674</v>
@@ -5448,19 +5448,19 @@
         <v>723352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>711213</v>
+        <v>712044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>733634</v>
+        <v>733990</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.956066689041713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9400217774893407</v>
+        <v>0.9411207359151381</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9696556547696248</v>
+        <v>0.9701271881918316</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>255263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228127</v>
+        <v>227851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>284994</v>
+        <v>288007</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1752828864771032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1566492653692053</v>
+        <v>0.1564592967251089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1956982608119301</v>
+        <v>0.1977674877550141</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>220</v>
@@ -5573,19 +5573,19 @@
         <v>224197</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199526</v>
+        <v>196586</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>255149</v>
+        <v>253413</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1412069932087983</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1256680243909259</v>
+        <v>0.1238161984416334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1607015119003642</v>
+        <v>0.1596076729797926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>454</v>
@@ -5594,19 +5594,19 @@
         <v>479461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>438426</v>
+        <v>438226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>522808</v>
+        <v>521804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1575093029127688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1440288590889535</v>
+        <v>0.1439633004643398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1717494072726024</v>
+        <v>0.1714194966449513</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>1201030</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1171299</v>
+        <v>1168286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1228166</v>
+        <v>1228442</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8247171135228968</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8043017391880704</v>
+        <v>0.8022325122449859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8433507346307948</v>
+        <v>0.8435407032748911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1277</v>
@@ -5644,19 +5644,19 @@
         <v>1363525</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1332573</v>
+        <v>1334309</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1388196</v>
+        <v>1391136</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8587930067912017</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8392984880996355</v>
+        <v>0.8403923270202074</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8743319756090739</v>
+        <v>0.8761838015583663</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2428</v>
@@ -5665,19 +5665,19 @@
         <v>2564554</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2521207</v>
+        <v>2522211</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2605589</v>
+        <v>2605789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8424906970872312</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8282505927273976</v>
+        <v>0.8285805033550487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8559711409110465</v>
+        <v>0.8560366995356603</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>47020</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35025</v>
+        <v>33558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61773</v>
+        <v>60839</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2192068664540791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.163287965011148</v>
+        <v>0.1564458294619067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2879839467880582</v>
+        <v>0.2836315396763627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -6032,19 +6032,19 @@
         <v>46763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35141</v>
+        <v>35716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57850</v>
+        <v>59361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2007205309165212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1508346553538557</v>
+        <v>0.1533038879926095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.248311967950125</v>
+        <v>0.2547939508348142</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -6053,19 +6053,19 @@
         <v>93783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78174</v>
+        <v>77761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113473</v>
+        <v>112516</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2095820991134688</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.174700590557099</v>
+        <v>0.1737771802932212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2535846844592937</v>
+        <v>0.2514467162093555</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>167481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152728</v>
+        <v>153662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179476</v>
+        <v>180943</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7807931335459211</v>
+        <v>0.7807931335459208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7120160532119418</v>
+        <v>0.7163684603236373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8367120349888523</v>
+        <v>0.8435541705380932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -6103,19 +6103,19 @@
         <v>186212</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175125</v>
+        <v>173614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197834</v>
+        <v>197259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7992794690834788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7516880320498744</v>
+        <v>0.7452060491651854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.849165344646144</v>
+        <v>0.8466961120073903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>396</v>
@@ -6124,19 +6124,19 @@
         <v>353692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>334002</v>
+        <v>334959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369301</v>
+        <v>369714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7904179008865311</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7464153155407068</v>
+        <v>0.7485532837906446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8252994094429014</v>
+        <v>0.8262228197067787</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>32380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22206</v>
+        <v>21695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46860</v>
+        <v>46548</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.157775709685521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1081988858433982</v>
+        <v>0.1057129297681593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2283290682827698</v>
+        <v>0.2268104821540639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -6249,19 +6249,19 @@
         <v>41057</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30461</v>
+        <v>30623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51847</v>
+        <v>52606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2101007679898761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1558761443908214</v>
+        <v>0.1567035152777512</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2653122992693062</v>
+        <v>0.2691986360314567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -6270,19 +6270,19 @@
         <v>73438</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58549</v>
+        <v>58403</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92122</v>
+        <v>92254</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1832975394788852</v>
+        <v>0.1832975394788853</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1461352140422969</v>
+        <v>0.1457714383194365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2299310234994111</v>
+        <v>0.2302606884181208</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>172850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158370</v>
+        <v>158682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183024</v>
+        <v>183535</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.842224290314479</v>
+        <v>0.8422242903144792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7716709317172304</v>
+        <v>0.7731895178459365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8918011141566018</v>
+        <v>0.8942870702318411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>213</v>
@@ -6320,19 +6320,19 @@
         <v>154361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143571</v>
+        <v>142812</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164957</v>
+        <v>164795</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7898992320101239</v>
+        <v>0.7898992320101237</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7346877007306938</v>
+        <v>0.7308013639685438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8441238556091787</v>
+        <v>0.8432964847222489</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>369</v>
@@ -6341,19 +6341,19 @@
         <v>327211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>308527</v>
+        <v>308395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>342100</v>
+        <v>342246</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8167024605211148</v>
+        <v>0.8167024605211146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7700689765005888</v>
+        <v>0.7697393115818791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8538647859577033</v>
+        <v>0.8542285616805636</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>45649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32684</v>
+        <v>32276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61505</v>
+        <v>61805</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2292457859288564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1641391594077291</v>
+        <v>0.1620898789927777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3088786914544378</v>
+        <v>0.3103836690806246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -6466,19 +6466,19 @@
         <v>10561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5750</v>
+        <v>5889</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17094</v>
+        <v>18014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1221472076232479</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06650056029157242</v>
+        <v>0.06811368160810451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.197706593515104</v>
+        <v>0.2083475875779201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -6487,19 +6487,19 @@
         <v>56209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42746</v>
+        <v>42205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73617</v>
+        <v>74626</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1968222463413842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1496808726497756</v>
+        <v>0.1477849112812391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2577773868394218</v>
+        <v>0.2613106783028179</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>153476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137620</v>
+        <v>137320</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166441</v>
+        <v>166849</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7707542140711438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6911213085455625</v>
+        <v>0.689616330919375</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8358608405922709</v>
+        <v>0.8379101210072221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -6537,19 +6537,19 @@
         <v>75898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69365</v>
+        <v>68445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80709</v>
+        <v>80570</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8778527923767522</v>
+        <v>0.8778527923767523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8022934064848961</v>
+        <v>0.7916524124220798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9334994397084276</v>
+        <v>0.9318863183918955</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>272</v>
@@ -6558,19 +6558,19 @@
         <v>229375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211967</v>
+        <v>210958</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242838</v>
+        <v>243379</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8031777536586159</v>
+        <v>0.8031777536586157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7422226131605772</v>
+        <v>0.7386893216971819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8503191273502241</v>
+        <v>0.8522150887187609</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>106873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84680</v>
+        <v>85726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130705</v>
+        <v>132965</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1999228926587759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1584072418154479</v>
+        <v>0.1603632898960075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2445036895750895</v>
+        <v>0.2487323679514121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -6683,19 +6683,19 @@
         <v>78547</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62360</v>
+        <v>61927</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95504</v>
+        <v>94972</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1850661478542428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1469272536750639</v>
+        <v>0.1459087373463116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2250192181344233</v>
+        <v>0.2237669870380924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -6704,19 +6704,19 @@
         <v>185420</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158613</v>
+        <v>159433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>212473</v>
+        <v>214138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1933477070285706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1653945965660286</v>
+        <v>0.1662504209481993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2215573800529357</v>
+        <v>0.2232943368148679</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>427698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403866</v>
+        <v>401606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>449891</v>
+        <v>448845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8000771073412239</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7554963104249107</v>
+        <v>0.7512676320485878</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8415927581845521</v>
+        <v>0.8396367101039924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -6754,19 +6754,19 @@
         <v>345878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328921</v>
+        <v>329453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362065</v>
+        <v>362498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8149338521457573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7749807818655768</v>
+        <v>0.7762330129619077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8530727463249361</v>
+        <v>0.8540912626536885</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>861</v>
@@ -6775,19 +6775,19 @@
         <v>773576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>746523</v>
+        <v>744858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>800383</v>
+        <v>799563</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8066522929714294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7784426199470643</v>
+        <v>0.7767056631851319</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8346054034339714</v>
+        <v>0.8337495790518004</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>40483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27400</v>
+        <v>28008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59535</v>
+        <v>56869</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1335507848652272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09039057156628054</v>
+        <v>0.09239605554638278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1964024171377647</v>
+        <v>0.1876086973679547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -6900,19 +6900,19 @@
         <v>46770</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35809</v>
+        <v>35326</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59893</v>
+        <v>59554</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.118239914847542</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09052917892479265</v>
+        <v>0.0893085545705839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1514170705603243</v>
+        <v>0.1505595662625127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -6921,19 +6921,19 @@
         <v>87253</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68478</v>
+        <v>67541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109386</v>
+        <v>107959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1248826569392056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0980100828032907</v>
+        <v>0.09666865901283174</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1565613805346366</v>
+        <v>0.1545186054069201</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>262645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243593</v>
+        <v>246259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275728</v>
+        <v>275120</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8664492151347727</v>
+        <v>0.8664492151347729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8035975828622355</v>
+        <v>0.8123913026320451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9096094284337196</v>
+        <v>0.9076039444536171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>556</v>
@@ -6971,19 +6971,19 @@
         <v>348783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>335660</v>
+        <v>335999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>359744</v>
+        <v>360227</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8817600851524581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8485829294396757</v>
+        <v>0.8494404337374875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9094708210752073</v>
+        <v>0.910691445429416</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>792</v>
@@ -6992,19 +6992,19 @@
         <v>611428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>589295</v>
+        <v>590722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>630203</v>
+        <v>631140</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8751173430607943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.843438619465363</v>
+        <v>0.8454813945930799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9019899171967091</v>
+        <v>0.9033313409871683</v>
       </c>
     </row>
     <row r="18">
@@ -7096,19 +7096,19 @@
         <v>6464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23331</v>
+        <v>20743</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02774754940820896</v>
+        <v>0.02774754940820897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00501235155708981</v>
+        <v>0.005015949787639382</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1001491956565656</v>
+        <v>0.08903909151769253</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7117,19 +7117,19 @@
         <v>25181</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16722</v>
+        <v>15107</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39855</v>
+        <v>38528</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05328881273530249</v>
+        <v>0.05328881273530248</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0353869509308036</v>
+        <v>0.0319699994132925</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08434217889197632</v>
+        <v>0.08153527007680784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -7138,19 +7138,19 @@
         <v>31645</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20463</v>
+        <v>20148</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49753</v>
+        <v>48448</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04485477783100578</v>
+        <v>0.04485477783100577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02900469250459337</v>
+        <v>0.02855837092384475</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07052098901605693</v>
+        <v>0.06867211982937686</v>
       </c>
     </row>
     <row r="20">
@@ -7167,19 +7167,19 @@
         <v>226501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209634</v>
+        <v>212222</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231797</v>
+        <v>231796</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9722524505917909</v>
+        <v>0.9722524505917911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8998508043434341</v>
+        <v>0.9109609084823074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9949876484429102</v>
+        <v>0.9949840502123606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>532</v>
@@ -7188,19 +7188,19 @@
         <v>447355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>432681</v>
+        <v>434008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>455814</v>
+        <v>457429</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9467111872646975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9156578211080239</v>
+        <v>0.9184647299231923</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9646130490691964</v>
+        <v>0.9680300005867075</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>635</v>
@@ -7209,19 +7209,19 @@
         <v>673856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>655748</v>
+        <v>657053</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>685038</v>
+        <v>685353</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9551452221689943</v>
+        <v>0.9551452221689942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9294790109839431</v>
+        <v>0.931327880170623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9709953074954066</v>
+        <v>0.9714416290761551</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>278869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245578</v>
+        <v>243504</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>320528</v>
+        <v>320443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1650581967649226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1453535935945959</v>
+        <v>0.1441259961257899</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.189715243428139</v>
+        <v>0.1896650595612954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>285</v>
@@ -7334,19 +7334,19 @@
         <v>248879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219844</v>
+        <v>222228</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>280375</v>
+        <v>280250</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1377025134437717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1216379390072088</v>
+        <v>0.1229569446037445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1551291863316738</v>
+        <v>0.1550597890960019</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>496</v>
@@ -7355,19 +7355,19 @@
         <v>527748</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>484086</v>
+        <v>481195</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>577663</v>
+        <v>578590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1509194077317888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1384334825918548</v>
+        <v>0.1376067346885191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1651935858214042</v>
+        <v>0.1654585701546012</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>1410651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1368992</v>
+        <v>1369077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1443942</v>
+        <v>1446016</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8349418032350774</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8102847565718613</v>
+        <v>0.8103349404387052</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8546464064054041</v>
+        <v>0.8558740038742101</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2143</v>
@@ -7405,19 +7405,19 @@
         <v>1558487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1526991</v>
+        <v>1527116</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1587522</v>
+        <v>1585138</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8622974865562285</v>
+        <v>0.8622974865562284</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8448708136683265</v>
+        <v>0.8449402109039984</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8783620609927913</v>
+        <v>0.8770430553962557</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3325</v>
@@ -7426,19 +7426,19 @@
         <v>2969138</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2919223</v>
+        <v>2918296</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3012800</v>
+        <v>3015691</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8490805922682112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8348064141785961</v>
+        <v>0.8345414298453989</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8615665174081457</v>
+        <v>0.8623932653114811</v>
       </c>
     </row>
     <row r="24">
